--- a/article/tables/SuperModels_Concat_Experiments_07-Jul-2023.xlsx
+++ b/article/tables/SuperModels_Concat_Experiments_07-Jul-2023.xlsx
@@ -1,33 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ResearchLab\Empirical_Study_REINFORCE\article\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rajesh\HEI\P-4 Research Phase\Empirical_Study_REINFORCE\article\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EED76E-5106-4808-92DB-9A2470413B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E27B914F-3849-4589-B597-E91D487E371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SuperModels_perf" sheetId="4" r:id="rId1"/>
-    <sheet name="SelectModels_list" sheetId="3" r:id="rId2"/>
-    <sheet name="sel" sheetId="2" r:id="rId3"/>
-    <sheet name="Concat_Experiments_07-Jul-2023" sheetId="1" r:id="rId4"/>
+    <sheet name="SuperModels_V2" sheetId="5" r:id="rId1"/>
+    <sheet name="SuperModels_perf" sheetId="4" r:id="rId2"/>
+    <sheet name="SelectModels_list" sheetId="3" r:id="rId3"/>
+    <sheet name="sel" sheetId="2" r:id="rId4"/>
+    <sheet name="Concat_Experiments_07-Jul-2023" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Concat_Experiments_07-Jul-2023'!$A$1:$BF$151</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">sel!$A$1:$P$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Concat_Experiments_07-Jul-2023'!$A$1:$BF$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sel!$A$1:$P$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SuperModels_perf!$B$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SuperModels_V2!$B$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="274">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -826,6 +842,30 @@
   <si>
     <t>PHM MS</t>
   </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>9_8_PHM_C04_SS_HighNBD__RF_Model_05-Jul-2023_20-30_0.71_0.84_0.73</t>
+  </si>
+  <si>
+    <t>Chk_1</t>
+  </si>
+  <si>
+    <t>Chk_2</t>
+  </si>
+  <si>
+    <t>3_13_PHM_C04_MS_NoNBD__RF_Model_06-Jul-2023_12-07_0.91_0.42_0.74</t>
+  </si>
+  <si>
+    <t>Chk_3</t>
+  </si>
+  <si>
+    <t>9_12_PHM_C01_MS_NoNBD__RF_Model_05-Jul-2023_21-04_0.95_0.75_0.90</t>
+  </si>
 </sst>
 </file>
 
@@ -834,7 +874,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,8 +1016,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,6 +1228,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1351,7 +1410,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1377,6 +1436,30 @@
     <xf numFmtId="164" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1736,15 +1819,1239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0026D6AD-6A8E-46EB-8A3D-2DE3B8518379}">
+  <dimension ref="B1:S22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="21" customWidth="1"/>
+    <col min="16" max="19" width="26.85546875" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.89654291360813099</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.92604813601977498</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.50547683310841196</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.66680512649244295</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.66932234432234405</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.51847883597883604</v>
+      </c>
+      <c r="P2" s="19" t="str">
+        <f>_xlfn.CONCAT($B2,"_",TEXT(C2,"00.##"), "_",TEXT(D2,"00.##"), "_",TEXT(E2,"00.##"))</f>
+        <v>Simulated NBD_00.9_00.96_00.93</v>
+      </c>
+      <c r="Q2" s="17" t="str">
+        <f>_xlfn.CONCAT($B2,"_",TEXT(F2,"00.##"), "_",TEXT(G2,"00.##"), "_",TEXT(H2,"00.##"))</f>
+        <v>Simulated NBD_00.5_01._00.67</v>
+      </c>
+      <c r="R2" s="17" t="str">
+        <f>_xlfn.CONCAT($B2,"_",TEXT(I2,"00.##"), "_",TEXT(J2,"00.##"), "_",TEXT(K2,"00.##"))</f>
+        <v>Simulated NBD_00.51_00.98_00.67</v>
+      </c>
+      <c r="S2" s="17" t="str">
+        <f>_xlfn.CONCAT($B2,"_",TEXT(L2,"00.##"), "_",TEXT(M2,"00.##"), "_",TEXT(N2,"00.##"))</f>
+        <v>Simulated NBD_00.67_00.43_00.52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.96042606516290696</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.95202889964122295</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.51572746835904704</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.68042285726004004</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.66212741087083504</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.63310433031021196</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.45999999999999902</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.53017502893152002</v>
+      </c>
+      <c r="P3" s="19" t="str">
+        <f t="shared" ref="P3:P16" si="0">_xlfn.CONCAT($B3,"_",TEXT(C3,"00.##"), "_",TEXT(D3,"00.##"), "_",TEXT(E3,"00.##"))</f>
+        <v>Simulated LBD_00.96_00.95_00.95</v>
+      </c>
+      <c r="Q3" s="17" t="str">
+        <f t="shared" ref="Q3:Q16" si="1">_xlfn.CONCAT($B3,"_",TEXT(F3,"00.##"), "_",TEXT(G3,"00.##"), "_",TEXT(H3,"00.##"))</f>
+        <v>Simulated LBD_00.52_01._00.68</v>
+      </c>
+      <c r="R3" s="17" t="str">
+        <f t="shared" ref="R3:R16" si="2">_xlfn.CONCAT($B3,"_",TEXT(I3,"00.##"), "_",TEXT(J3,"00.##"), "_",TEXT(K3,"00.##"))</f>
+        <v>Simulated LBD_00.5_00.98_00.66</v>
+      </c>
+      <c r="S3" s="17" t="str">
+        <f t="shared" ref="S3:S16" si="3">_xlfn.CONCAT($B3,"_",TEXT(L3,"00.##"), "_",TEXT(M3,"00.##"), "_",TEXT(N3,"00.##"))</f>
+        <v>Simulated LBD_00.63_00.46_00.53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.92237624694146403</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.95456567539097303</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.502564102564102</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.66892655367231602</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.50391363022941904</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.66781609195402303</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.56925133689839502</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.433790051911494</v>
+      </c>
+      <c r="P4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulated HBD_00.92_00.99_00.95</v>
+      </c>
+      <c r="Q4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Simulated HBD_00.5_01._00.67</v>
+      </c>
+      <c r="R4" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Simulated HBD_00.5_00.99_00.67</v>
+      </c>
+      <c r="S4" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Simulated HBD_00.57_00.36_00.43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.88927159796724997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.93885962779893495</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.58626212803962097</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.602917629842876</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.646907410350124</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.77587454981992798</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.54282214545372398</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.70343570525058696</v>
+      </c>
+      <c r="P5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 SS NBD_00.89_01._00.94</v>
+      </c>
+      <c r="Q5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C01 SS NBD_00.59_00.63_00.6</v>
+      </c>
+      <c r="R5" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C01 SS NBD_00.65_00.97_00.78</v>
+      </c>
+      <c r="S5" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C01 SS NBD_00.54_01._00.7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.98819444444444404</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.86076036432073499</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.498717948717948</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.66440677966101602</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.50384615384615306</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.66779661016949099</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.62319998519998498</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.675443924070534</v>
+      </c>
+      <c r="P6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 SS LBD_00.99_00.77_00.86</v>
+      </c>
+      <c r="Q6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C01 SS LBD_00.5_01._00.66</v>
+      </c>
+      <c r="R6" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C01 SS LBD_00.5_00.99_00.67</v>
+      </c>
+      <c r="S6" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C01 SS LBD_00.62_00.74_00.68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.85045266327875002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.90530341908674195</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.52112137975677097</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.67999999999999905</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.58802954183720302</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.50533063427800196</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.66789401909214796</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.52026480463980396</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.60435461548904901</v>
+      </c>
+      <c r="P7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 SS HBD_00.85_00.97_00.91</v>
+      </c>
+      <c r="Q7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C01 SS HBD_00.52_00.68_00.59</v>
+      </c>
+      <c r="R7" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C01 SS HBD_00.51_00.99_00.67</v>
+      </c>
+      <c r="S7" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C01 SS HBD_00.52_00.73_00.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.81051282051282003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.89512516469038195</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.53621472764035605</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.58327472086143195</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.50121092752671603</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.65964912280701704</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.46601641953963902</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.48914480636328</v>
+      </c>
+      <c r="P8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 SS NBD_00.81_01._00.9</v>
+      </c>
+      <c r="Q8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C04 SS NBD_00.54_00.65_00.58</v>
+      </c>
+      <c r="R8" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C04 SS NBD_00.5_00.97_00.66</v>
+      </c>
+      <c r="S8" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C04 SS NBD_00.47_00.52_00.49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.79842747429703897</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.87929191882249902</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.55617741678611199</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.60260514117513597</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.73365893365893298</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.84259944495837102</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.546230460283055</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.65999999999999903</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.59583761620042397</v>
+      </c>
+      <c r="P9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 SS LBD_00.8_00.98_00.88</v>
+      </c>
+      <c r="Q9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C04 SS LBD_00.56_00.67_00.6</v>
+      </c>
+      <c r="R9" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C04 SS LBD_00.73_00.99_00.84</v>
+      </c>
+      <c r="S9" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C04 SS LBD_00.55_00.66_00.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.64032467532467496</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.44196386352093597</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.52093735767360005</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.640826339570996</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.510601086916876</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.67245480738667196</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.51746033968274296</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.63321424788366498</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 SS HBD_00.64_00.35_00.44</v>
+      </c>
+      <c r="Q10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C04 SS HBD_00.52_00.84_00.64</v>
+      </c>
+      <c r="R10" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C04 SS HBD_00.51_00.99_00.67</v>
+      </c>
+      <c r="S10" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C04 SS HBD_00.52_00.82_00.63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.89499999999999902</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.94395083342451702</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.52043496502762798</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.67999999999999905</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.58732131542225796</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.93490306794654598</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.95397023471895803</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.58673687182382805</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.61487124797331605</v>
+      </c>
+      <c r="P11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 SS NBD_01._00.89_00.94</v>
+      </c>
+      <c r="Q11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C06 SS NBD_00.52_00.68_00.59</v>
+      </c>
+      <c r="R11" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C06 SS NBD_00.93_00.98_00.95</v>
+      </c>
+      <c r="S11" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C06 SS NBD_00.59_00.65_00.61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.94262555899552802</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.86111015584699702</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.50128205128205106</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.66779661016949099</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.961057692307692</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.82552839317545101</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.52145717004412595</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.56353269465529698</v>
+      </c>
+      <c r="P12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 SS LBD_00.94_00.8_00.86</v>
+      </c>
+      <c r="Q12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C06 SS LBD_00.5_01._00.67</v>
+      </c>
+      <c r="R12" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C06 SS LBD_00.96_00.73_00.83</v>
+      </c>
+      <c r="S12" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C06 SS LBD_00.52_00.62_00.56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.82074371534897805</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.83145452963809796</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.54014744972391104</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.755</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.62823946392830599</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.98015873015873001</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.96933609821928102</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.49745295698924702</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.57673058143902101</v>
+      </c>
+      <c r="P13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 SS HBD_00.82_00.85_00.83</v>
+      </c>
+      <c r="Q13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C06 SS HBD_00.54_00.76_00.63</v>
+      </c>
+      <c r="R13" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C06 SS HBD_00.98_00.96_00.97</v>
+      </c>
+      <c r="S13" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C06 SS HBD_00.5_00.69_00.58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.82695930880713497</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.90289497604967694</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.50533610533610496</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.66787658802177796</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.51158799171842595</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.54885442832833597</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="P14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 MS NBD_00.83_01._00.9</v>
+      </c>
+      <c r="Q14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C01 MS NBD_00.5_01._00.67</v>
+      </c>
+      <c r="R14" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C01 MS NBD_00.51_00.99_00.67</v>
+      </c>
+      <c r="S14" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C01 MS NBD_00.51_00.6_00.55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.28834012364447098</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.50128387496808502</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.662049483732709</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.50071515585308601</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.55797894096120904</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="P15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 MS NBD_00.89_00.18_00.29</v>
+      </c>
+      <c r="Q15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C04 MS NBD_00.5_01._00.67</v>
+      </c>
+      <c r="R15" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C04 MS NBD_00.5_00.98_00.66</v>
+      </c>
+      <c r="S15" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C04 MS NBD_00.5_00.64_00.56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.93385737069947605</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.89618266717111295</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.96923076923076901</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.74090909090909096</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.57864146285754403</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.89499999999999902</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.70237621100449599</v>
+      </c>
+      <c r="P16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 MS NBD_00.93_00.87_00.9</v>
+      </c>
+      <c r="Q16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PHM C06 MS NBD_00.5_01._00.67</v>
+      </c>
+      <c r="R16" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PHM C06 MS NBD_00.97_00.6_00.74</v>
+      </c>
+      <c r="S16" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>PHM C06 MS NBD_00.58_00.89_00.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="12">
+        <f>AVERAGE(C2:C16)</f>
+        <v>0.87804765702590648</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:N19" si="4">AVERAGE(D2:D16)</f>
+        <v>0.83466666666666656</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="4"/>
+        <v>0.83185869033780491</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="4"/>
+        <v>0.51997246637140981</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="4"/>
+        <v>0.85866666666666658</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="4"/>
+        <v>0.63876224133784898</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="4"/>
+        <v>0.65086105665750416</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="4"/>
+        <v>0.93699999999999994</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="4"/>
+        <v>0.74017913815521308</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="4"/>
+        <v>0.55228425170774387</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" si="4"/>
+        <v>0.65266666666666662</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="4"/>
+        <v>0.5832145957627376</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="12">
+        <f>AVERAGE(C2:C4)</f>
+        <v>0.9264484085708341</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" ref="D20:N20" si="5">AVERAGE(D2:D4)</f>
+        <v>0.96499999999999986</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="5"/>
+        <v>0.94421423701732365</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="5"/>
+        <v>0.50609719030771638</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="5"/>
+        <v>0.67200535919967397</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="5"/>
+        <v>0.50313015444594367</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="5"/>
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="5"/>
+        <v>0.6655828764391003</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="5"/>
+        <v>0.62389267051031705</v>
+      </c>
+      <c r="M20" s="13">
+        <f t="shared" si="5"/>
+        <v>0.41499999999999965</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="5"/>
+        <v>0.49414797227394996</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="12">
+        <f>AVERAGE(C5:C13)</f>
+        <v>0.86006143890772035</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" ref="D21:N21" si="6">AVERAGE(D5:D13)</f>
+        <v>0.84333333333333316</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="6"/>
+        <v>0.83975776412776004</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="6"/>
+        <v>0.5312550471831109</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="6"/>
+        <v>0.76444444444444415</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="6"/>
+        <v>0.61837972694096832</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="6"/>
+        <v>0.69751940410997482</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="6"/>
+        <v>0.9494444444444442</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="6"/>
+        <v>0.78167814226081289</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="6"/>
+        <v>0.53573790596179449</v>
+      </c>
+      <c r="M21" s="13">
+        <f t="shared" si="6"/>
+        <v>0.71333333333333337</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6062850488139081</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="12">
+        <f>AVERAGE(C14:C16)</f>
+        <v>0.88360555983553712</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" ref="D22:N22" si="7">AVERAGE(D14:D16)</f>
+        <v>0.67833333333333334</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="7"/>
+        <v>0.69580592228842031</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="7"/>
+        <v>0.65861691651165299</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="7"/>
+        <v>0.85333333333333339</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="7"/>
+        <v>0.69027838755452597</v>
+      </c>
+      <c r="L22" s="13">
+        <f t="shared" si="7"/>
+        <v>0.5303148701430187</v>
+      </c>
+      <c r="M22" s="13">
+        <f t="shared" si="7"/>
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="7"/>
+        <v>0.60306986009801367</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C20 D20:N22 C21:C22" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2669,6 +3976,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -2677,22 +3985,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="17" max="17" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -2743,82 +4054,64 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>254</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
       <c r="Q2" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <v>0.5</v>
+        <v>0.51572746835904704</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>0.66666666666666596</v>
+        <v>0.68042285726004004</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2827,33 +4120,33 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="2" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <v>0.51572746835904704</v>
+        <v>0.502564102564102</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0.68042285726004004</v>
+        <v>0.66892655367231602</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2862,33 +4155,33 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="2" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <v>0.502564102564102</v>
+        <v>0.58626212803962097</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="J5" s="1">
-        <v>0.66892655367231602</v>
+        <v>0.602917629842876</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2897,33 +4190,33 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="2" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>0.58626212803962097</v>
+        <v>0.498717948717948</v>
       </c>
       <c r="I6" s="1">
-        <v>0.625</v>
+        <v>0.995</v>
       </c>
       <c r="J6" s="1">
-        <v>0.602917629842876</v>
+        <v>0.66440677966101602</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2932,33 +4225,33 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="2" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>0.498717948717948</v>
+        <v>0.52112137975677097</v>
       </c>
       <c r="I7" s="1">
-        <v>0.995</v>
+        <v>0.67999999999999905</v>
       </c>
       <c r="J7" s="1">
-        <v>0.66440677966101602</v>
+        <v>0.58802954183720302</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2967,33 +4260,33 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="2" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <v>0.52112137975677097</v>
+        <v>0.53621472764035605</v>
       </c>
       <c r="I8" s="1">
-        <v>0.67999999999999905</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.58802954183720302</v>
+        <v>0.58327472086143195</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3002,33 +4295,33 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="2" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <v>0.53621472764035605</v>
+        <v>0.55617741678611199</v>
       </c>
       <c r="I9" s="1">
-        <v>0.64500000000000002</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="J9" s="1">
-        <v>0.58327472086143195</v>
+        <v>0.60260514117513597</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3037,15 +4330,15 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="2" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>255</v>
@@ -3057,13 +4350,13 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <v>0.55617741678611199</v>
+        <v>0.52093735767360005</v>
       </c>
       <c r="I10" s="1">
-        <v>0.66500000000000004</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="J10" s="1">
-        <v>0.60260514117513597</v>
+        <v>0.640826339570996</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -3072,33 +4365,33 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
-        <v>0.52093735767360005</v>
+        <v>0.52043496502762798</v>
       </c>
       <c r="I11" s="1">
-        <v>0.83499999999999996</v>
+        <v>0.67999999999999905</v>
       </c>
       <c r="J11" s="1">
-        <v>0.640826339570996</v>
+        <v>0.58732131542225796</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -3107,33 +4400,33 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="2" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <v>0.52043496502762798</v>
+        <v>0.50128205128205106</v>
       </c>
       <c r="I12" s="1">
-        <v>0.67999999999999905</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>0.58732131542225796</v>
+        <v>0.66779661016949099</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -3142,33 +4435,33 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
-        <v>0.50128205128205106</v>
+        <v>0.54014744972391104</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>0.755</v>
       </c>
       <c r="J13" s="1">
-        <v>0.66779661016949099</v>
+        <v>0.62823946392830599</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3177,33 +4470,33 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="2" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
-        <v>0.54014744972391104</v>
+        <v>0.5</v>
       </c>
       <c r="I14" s="1">
-        <v>0.755</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>0.62823946392830599</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3212,21 +4505,21 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="2" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3247,21 +4540,21 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="2" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3282,73 +4575,73 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="2" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17">
-        <v>9</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.66666666666666596</v>
-      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="K18" s="1">
+        <v>0.50547683310841196</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.66680512649244295</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3357,33 +4650,33 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1">
-        <v>0.50547683310841196</v>
+        <v>0.5</v>
       </c>
       <c r="L19" s="1">
         <v>0.98</v>
       </c>
       <c r="M19" s="1">
-        <v>0.66680512649244295</v>
+        <v>0.66212741087083504</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="2" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3392,33 +4685,33 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1">
-        <v>0.5</v>
+        <v>0.50391363022941904</v>
       </c>
       <c r="L20" s="1">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="M20" s="1">
-        <v>0.66212741087083504</v>
+        <v>0.66781609195402303</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="2" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3427,33 +4720,33 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1">
-        <v>0.50391363022941904</v>
+        <v>0.646907410350124</v>
       </c>
       <c r="L21" s="1">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="M21" s="1">
-        <v>0.66781609195402303</v>
+        <v>0.77587454981992798</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="2" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3462,33 +4755,33 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1">
-        <v>0.646907410350124</v>
+        <v>0.50384615384615306</v>
       </c>
       <c r="L22" s="1">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="M22" s="1">
-        <v>0.77587454981992798</v>
+        <v>0.66779661016949099</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="2" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3497,33 +4790,33 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1">
-        <v>0.50384615384615306</v>
+        <v>0.50533063427800196</v>
       </c>
       <c r="L23" s="1">
-        <v>0.99</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>0.66779661016949099</v>
+        <v>0.66789401909214796</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="2" t="s">
-        <v>228</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3532,33 +4825,33 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1">
-        <v>0.50533063427800196</v>
+        <v>0.50121092752671603</v>
       </c>
       <c r="L24" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="M24" s="1">
-        <v>0.66789401909214796</v>
+        <v>0.65964912280701704</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3567,33 +4860,33 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1">
-        <v>0.50121092752671603</v>
+        <v>0.73365893365893298</v>
       </c>
       <c r="L25" s="1">
-        <v>0.96499999999999997</v>
+        <v>0.99</v>
       </c>
       <c r="M25" s="1">
-        <v>0.65964912280701704</v>
+        <v>0.84259944495837102</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3602,33 +4895,33 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1">
-        <v>0.73365893365893298</v>
+        <v>0.510601086916876</v>
       </c>
       <c r="L26" s="1">
-        <v>0.99</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>0.84259944495837102</v>
+        <v>0.67245480738667196</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="2" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -3637,33 +4930,33 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1">
-        <v>0.510601086916876</v>
+        <v>0.93490306794654598</v>
       </c>
       <c r="L27" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="M27" s="1">
-        <v>0.67245480738667196</v>
+        <v>0.95397023471895803</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -3672,33 +4965,33 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1">
-        <v>0.93490306794654598</v>
+        <v>0.961057692307692</v>
       </c>
       <c r="L28" s="1">
-        <v>0.97499999999999998</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="M28" s="1">
-        <v>0.95397023471895803</v>
+        <v>0.82552839317545101</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="2" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -3707,33 +5000,33 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1">
-        <v>0.961057692307692</v>
+        <v>0.98015873015873001</v>
       </c>
       <c r="L29" s="1">
-        <v>0.72499999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="M29" s="1">
-        <v>0.82552839317545101</v>
+        <v>0.96933609821928102</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="2" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3742,33 +5035,33 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1">
-        <v>0.98015873015873001</v>
+        <v>0.50533610533610496</v>
       </c>
       <c r="L30" s="1">
-        <v>0.96</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="M30" s="1">
-        <v>0.96933609821928102</v>
+        <v>0.66787658802177796</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="2" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3777,27 +5070,27 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1">
-        <v>0.50533610533610496</v>
+        <v>0.50128387496808502</v>
       </c>
       <c r="L31" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="M31" s="1">
-        <v>0.66787658802177796</v>
+        <v>0.662049483732709</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="2" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>14</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>110</v>
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>260</v>
@@ -3812,58 +5105,50 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1">
-        <v>0.50128387496808502</v>
+        <v>0.96923076923076901</v>
       </c>
       <c r="L32" s="1">
-        <v>0.97499999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="M32" s="1">
-        <v>0.662049483732709</v>
+        <v>0.74090909090909096</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>15</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1">
-        <v>0.96923076923076901</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.74090909090909096</v>
-      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3873,17 +5158,25 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="2"/>
+      <c r="N34" s="1">
+        <v>0.66932234432234405</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.51847883597883604</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>261</v>
@@ -3901,30 +5194,30 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1">
-        <v>0.66932234432234405</v>
+        <v>0.63310433031021196</v>
       </c>
       <c r="O35" s="1">
-        <v>0.43</v>
+        <v>0.45999999999999902</v>
       </c>
       <c r="P35" s="1">
-        <v>0.51847883597883604</v>
+        <v>0.53017502893152002</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3936,30 +5229,30 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1">
-        <v>0.63310433031021196</v>
+        <v>0.56925133689839502</v>
       </c>
       <c r="O36" s="1">
-        <v>0.45999999999999902</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="P36" s="1">
-        <v>0.53017502893152002</v>
+        <v>0.433790051911494</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3971,30 +5264,30 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1">
-        <v>0.56925133689839502</v>
+        <v>0.54282214545372398</v>
       </c>
       <c r="O37" s="1">
-        <v>0.35499999999999998</v>
+        <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>0.433790051911494</v>
+        <v>0.70343570525058696</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -4006,30 +5299,30 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1">
-        <v>0.54282214545372398</v>
+        <v>0.62319998519998498</v>
       </c>
       <c r="O38" s="1">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="P38" s="1">
-        <v>0.70343570525058696</v>
+        <v>0.675443924070534</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -4041,30 +5334,30 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1">
-        <v>0.62319998519998498</v>
+        <v>0.52026480463980396</v>
       </c>
       <c r="O39" s="1">
-        <v>0.74</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="P39" s="1">
-        <v>0.675443924070534</v>
+        <v>0.60435461548904901</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -4076,21 +5369,21 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1">
-        <v>0.52026480463980396</v>
+        <v>0.46601641953963902</v>
       </c>
       <c r="O40" s="1">
-        <v>0.72499999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="P40" s="1">
-        <v>0.60435461548904901</v>
+        <v>0.48914480636328</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
@@ -4099,7 +5392,7 @@
         <v>261</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -4111,30 +5404,30 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1">
-        <v>0.46601641953963902</v>
+        <v>0.546230460283055</v>
       </c>
       <c r="O41" s="1">
-        <v>0.52</v>
+        <v>0.65999999999999903</v>
       </c>
       <c r="P41" s="1">
-        <v>0.48914480636328</v>
+        <v>0.59583761620042397</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -4146,30 +5439,30 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1">
-        <v>0.546230460283055</v>
+        <v>0.51746033968274296</v>
       </c>
       <c r="O42" s="1">
-        <v>0.65999999999999903</v>
+        <v>0.82</v>
       </c>
       <c r="P42" s="1">
-        <v>0.59583761620042397</v>
+        <v>0.63321424788366498</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -4181,30 +5474,30 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1">
-        <v>0.51746033968274296</v>
+        <v>0.58673687182382805</v>
       </c>
       <c r="O43" s="1">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="P43" s="1">
-        <v>0.63321424788366498</v>
+        <v>0.61487124797331605</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -4216,24 +5509,24 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1">
-        <v>0.58673687182382805</v>
+        <v>0.52145717004412595</v>
       </c>
       <c r="O44" s="1">
-        <v>0.65</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="P44" s="1">
-        <v>0.61487124797331605</v>
+        <v>0.56353269465529698</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>261</v>
@@ -4251,30 +5544,30 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1">
-        <v>0.52145717004412595</v>
+        <v>0.49745295698924702</v>
       </c>
       <c r="O45" s="1">
-        <v>0.61499999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="P45" s="1">
-        <v>0.56353269465529698</v>
+        <v>0.57673058143902101</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4286,30 +5579,30 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1">
-        <v>0.49745295698924702</v>
+        <v>0.51158799171842595</v>
       </c>
       <c r="O46" s="1">
-        <v>0.69</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="P46" s="1">
-        <v>0.57673058143902101</v>
+        <v>0.54885442832833597</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -4321,30 +5614,30 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1">
-        <v>0.51158799171842595</v>
+        <v>0.50071515585308601</v>
       </c>
       <c r="O47" s="1">
-        <v>0.59499999999999997</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="P47" s="1">
-        <v>0.54885442832833597</v>
+        <v>0.55797894096120904</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -4356,31 +5649,20 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1">
-        <v>0.50071515585308601</v>
+        <v>0.57864146285754403</v>
       </c>
       <c r="O48" s="1">
-        <v>0.63500000000000001</v>
+        <v>0.89499999999999902</v>
       </c>
       <c r="P48" s="1">
-        <v>0.55797894096120904</v>
+        <v>0.70237621100449599</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D49">
-        <v>8</v>
-      </c>
+      <c r="C49" s="4"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -4390,24 +5672,33 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1">
-        <v>0.57864146285754403</v>
-      </c>
-      <c r="O49" s="1">
-        <v>0.89499999999999902</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0.70237621100449599</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C50" s="4"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.89654291360813099</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.92604813601977498</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -4417,14 +5708,16 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="2"/>
+      <c r="Q50" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>259</v>
@@ -4433,13 +5726,13 @@
         <v>6</v>
       </c>
       <c r="E51" s="1">
-        <v>0.89654291360813099</v>
+        <v>0.96042606516290696</v>
       </c>
       <c r="F51" s="1">
-        <v>0.96</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="G51" s="1">
-        <v>0.92604813601977498</v>
+        <v>0.95202889964122295</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4451,30 +5744,30 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>0.96042606516290696</v>
+        <v>0.92237624694146403</v>
       </c>
       <c r="F52" s="1">
-        <v>0.94499999999999995</v>
+        <v>0.99</v>
       </c>
       <c r="G52" s="1">
-        <v>0.95202889964122295</v>
+        <v>0.95456567539097303</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -4486,30 +5779,30 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="2" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1">
-        <v>0.92237624694146403</v>
+        <v>0.88927159796724997</v>
       </c>
       <c r="F53" s="1">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="G53" s="1">
-        <v>0.95456567539097303</v>
+        <v>0.93885962779893495</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4521,30 +5814,30 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="2" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>0.88927159796724997</v>
+        <v>0.98819444444444404</v>
       </c>
       <c r="F54" s="1">
-        <v>0.995</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="G54" s="1">
-        <v>0.93885962779893495</v>
+        <v>0.86076036432073499</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4556,30 +5849,30 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="2" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1">
-        <v>0.98819444444444404</v>
+        <v>0.85045266327875002</v>
       </c>
       <c r="F55" s="1">
-        <v>0.76500000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="G55" s="1">
-        <v>0.86076036432073499</v>
+        <v>0.90530341908674195</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4591,30 +5884,30 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="2" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1">
-        <v>0.85045266327875002</v>
+        <v>0.81051282051282003</v>
       </c>
       <c r="F56" s="1">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>0.90530341908674195</v>
+        <v>0.89512516469038195</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4626,30 +5919,30 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1">
-        <v>0.81051282051282003</v>
+        <v>0.79842747429703897</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G57" s="1">
-        <v>0.89512516469038195</v>
+        <v>0.87929191882249902</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4661,30 +5954,30 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="2" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0.79842747429703897</v>
+        <v>0.64032467532467496</v>
       </c>
       <c r="F58" s="1">
-        <v>0.98</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="G58" s="1">
-        <v>0.87929191882249902</v>
+        <v>0.44196386352093597</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4696,30 +5989,30 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="2" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E59" s="1">
-        <v>0.64032467532467496</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>0.34499999999999997</v>
+        <v>0.89499999999999902</v>
       </c>
       <c r="G59" s="1">
-        <v>0.44196386352093597</v>
+        <v>0.94395083342451702</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4731,30 +6024,30 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="2" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>0.94262555899552802</v>
       </c>
       <c r="F60" s="1">
-        <v>0.89499999999999902</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="G60" s="1">
-        <v>0.94395083342451702</v>
+        <v>0.86111015584699702</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4766,30 +6059,30 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1">
-        <v>0.94262555899552802</v>
+        <v>0.82074371534897805</v>
       </c>
       <c r="F61" s="1">
-        <v>0.79500000000000004</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="G61" s="1">
-        <v>0.86111015584699702</v>
+        <v>0.83145452963809796</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4801,30 +6094,30 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="2" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>0.82074371534897805</v>
+        <v>0.82695930880713497</v>
       </c>
       <c r="F62" s="1">
-        <v>0.84499999999999997</v>
+        <v>0.995</v>
       </c>
       <c r="G62" s="1">
-        <v>0.83145452963809796</v>
+        <v>0.90289497604967694</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4836,30 +6129,30 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="2" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.82695930880713497</v>
+        <v>0.89</v>
       </c>
       <c r="F63" s="1">
-        <v>0.995</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G63" s="1">
-        <v>0.90289497604967694</v>
+        <v>0.28834012364447098</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4871,30 +6164,30 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E64" s="1">
-        <v>0.89</v>
+        <v>0.93385737069947605</v>
       </c>
       <c r="F64" s="1">
-        <v>0.17499999999999999</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="G64" s="1">
-        <v>0.28834012364447098</v>
+        <v>0.89618266717111295</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4906,60 +6199,25 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>15</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D65">
-        <v>9</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0.93385737069947605</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.89618266717111295</v>
-      </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="2" t="s">
         <v>253</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q65">
-    <sortCondition ref="C3:C65"/>
-    <sortCondition ref="A3:A65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q64">
+    <sortCondition ref="C2:C64"/>
+    <sortCondition ref="A2:A64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P151"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:I10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,6 +6229,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>266</v>
+      </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -5417,7 +6678,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>110</v>
       </c>
@@ -5466,7 +6727,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
@@ -5514,7 +6775,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>114</v>
       </c>
@@ -5561,7 +6822,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>114</v>
       </c>
@@ -5757,7 +7018,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
         <v>114</v>
@@ -5805,7 +7066,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>106</v>
       </c>
@@ -5852,7 +7113,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>106</v>
       </c>
@@ -6334,7 +7595,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>106</v>
       </c>
@@ -6619,7 +7880,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>114</v>
       </c>
@@ -7048,7 +8309,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>114</v>
       </c>
@@ -7236,7 +8497,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>110</v>
       </c>
@@ -7473,7 +8734,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>110</v>
@@ -7900,7 +9161,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>110</v>
       </c>
@@ -8190,7 +9451,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s">
         <v>106</v>
@@ -8285,7 +9546,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>114</v>
       </c>
@@ -8332,7 +9593,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>114</v>
       </c>
@@ -8381,7 +9642,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
         <v>114</v>
@@ -8955,7 +10216,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>114</v>
       </c>
@@ -9237,7 +10498,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>110</v>
       </c>
@@ -10136,7 +11397,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>110</v>
       </c>
@@ -10424,7 +11685,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="s">
         <v>106</v>
       </c>
@@ -10803,7 +12064,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>110</v>
       </c>
@@ -10946,7 +12207,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B126" t="s">
         <v>106</v>
@@ -11044,7 +12305,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>106</v>
       </c>
@@ -11091,7 +12352,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>106</v>
       </c>
@@ -11279,7 +12540,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>110</v>
       </c>
@@ -11761,7 +13022,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>106</v>
       </c>
@@ -12195,6 +13456,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P151" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="PHM C01 MS NBD"/>
@@ -12210,13 +13476,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BF151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BM1" sqref="BM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
